--- a/Saldo em CC.xlsx
+++ b/Saldo em CC.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R5961d2e50b254810"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="Rea43e537bd4d4668"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -72,46 +72,16 @@
     <x:row>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>005411104</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>PAULO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>233000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004332747</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LOHRAN</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>86803.04</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005000460</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIANA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>36598.74</x:v>
+          <x:t>004301699</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>SABRINA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>25433.49</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -127,36 +97,6 @@
       </x:c>
       <x:c>
         <x:v>21580.21</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005726697</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FERNANDO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>16040.56</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005219257</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CAROLINE</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>5014.98</x:v>
       </x:c>
     </x:row>
     <x:row>

--- a/Saldo em CC.xlsx
+++ b/Saldo em CC.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R8d365c13509f49c7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Export" sheetId="1" r:id="R1447f20670604aa8"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -81,7 +81,52 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>71000</x:v>
+        <x:v>64951.54</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004213943</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ELISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>30097.72</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005064129</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>THIAGO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>21258.78</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004568300</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUIS</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>20028.56</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -96,52 +141,22 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>38196.8</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004213943</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ELISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>30097.72</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005064129</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>THIAGO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>21258.78</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004568300</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUIS</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>20028.56</x:v>
+        <x:v>16086.58</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004575632</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ADELE</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>5000</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -177,7 +192,217 @@
     <x:row>
       <x:c t="inlineStr">
         <x:is>
-          <x:t>004460491</x:t>
+          <x:t>004474776</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GILSON</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>1485.7</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004211368</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ILTON</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>993.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004321016</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JOAQUIM</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>988.12</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004751770</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DILSON</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>979.88</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004392159</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RODRIGO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>900.21</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004451978</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANTONIO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>870.72</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004574428</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GUILHERME</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>864.88</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004383190</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MAFALDA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>844.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004435987</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARCO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>803.89</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004804125</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDUARDO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>772.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004870019</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARIA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>760.19</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004214460</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARIA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>757.52</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005009992</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ALINE</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>751.02</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004448303</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>NASSIM</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>746</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005324840</x:t>
         </x:is>
       </x:c>
       <x:c t="inlineStr">
@@ -186,103 +411,1198 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>3461.3</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004474776</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GILSON</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>1485.7</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004211368</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ILTON</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>993.6</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004321016</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JOAQUIM</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>988.12</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004751770</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DILSON</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>979.88</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004392159</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RODRIGO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>900.21</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004451978</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANTONIO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>870.72</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004574428</x:t>
+        <x:v>734.48</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005591536</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GUSTAVO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>725.86</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004298042</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUIZ</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>709.83</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004813134</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MONICA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>681.1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004212476</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARIA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>659.01</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004975924</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>SERGIO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>642.85</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004436055</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARCO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>642.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004237325</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RICARDO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>613.44</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005044389</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLAUDIA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>592.87</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004363260</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LARISSA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>577.69</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005198093</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>575.32</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004584517</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CAIO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>561.93</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004231509</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>THEOMAR</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>559.82</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005685353</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CARLOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>550.73</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004222784</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RAFAEL</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>507.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004453157</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JOSE</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>494.82</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004713953</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ALESSANDRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>481.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004748761</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARCELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>470.54</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005324981</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>459.61</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>002687737</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JOSE</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>435.78</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004376853</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ALBERTO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>429.15</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004567324</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FRANCISCO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>424.34</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004364200</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>BLOCO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>415.24</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004415557</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FILIPE</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>390.41</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004468717</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>HELOISA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>387.99</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004454491</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARCO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>386.63</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005293480</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>WAGNER</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>383</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004643746</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARIO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>381.27</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004754056</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>BRUNO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>371.54</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004813088</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JULIANA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>367.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004323271</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RAFAEL</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>360</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004001621</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANIELA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>358.98</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004879567</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>SANDRA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>357.13</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005332628</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>EDUARDO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>353.07</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004455356</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>MARCELO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>347.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004567880</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUANA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>341.56</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004381328</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JOAO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>338.08</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004752494</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>SERGIO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>337.35</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004479287</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>333.42</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004385806</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ANILSON</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>311.89</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004565108</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GUSTAVO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>308.78</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004690692</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>PHYLIA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>306.37</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004551472</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DIEGO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>302.65</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004935287</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ODILON</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>301.39</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005061124</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>BRUNO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>300.42</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005002457</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ROSANGELA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>291.07</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004382374</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>THEOMAR</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>290.45</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004405234</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JULIO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>288.63</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004420763</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CHRISTIAN</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>284.27</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004381415</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JOAO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>275.93</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004554411</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUIZ</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>273.56</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004484207</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FLAVIA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>270.23</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004462930</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>WALTER</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>269.74</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004950193</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>GABRIEL</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>268.94</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004862677</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RENATO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>268.5</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005121919</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JORGE</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>265.03</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004508526</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CASSIO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>257.74</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005624274</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLAYTON</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>256.57</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004452597</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LARA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>250.28</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005654767</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DIEGO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004376145</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCYENE</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>248.88</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004482163</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CIRIA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>247.23</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004472538</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RODOLFO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>243.25</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004212409</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RAFAEL</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>238.79</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>002277249</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>DANILO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>234.94</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004482090</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CEZAR</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>233.12</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005262440</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>BERNARDO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>229.64</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>002828327</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>RENAN</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>229.1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004584982</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>BRUNO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>226.72</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004500087</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JANNE</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>221.68</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004805269</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CLISIA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>221.06</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004751154</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CATARINE</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>220.44</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005105970</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>VERA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>220.04</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004342617</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JURACI</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>216.82</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004752534</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>CARLOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>215.52</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004767746</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>ISABELE</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>212.07</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005255637</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>PATRICIA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>206.15</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004515548</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>FLAVIA</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>198.87</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004259659</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>BENTO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>195.19</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004996634</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>HIROKO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>193.38</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004948033</x:t>
         </x:is>
       </x:c>
       <x:c t="inlineStr">
@@ -291,223 +1611,43 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>864.88</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004383190</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MAFALDA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>844.9</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004435987</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARCO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>803.89</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004804125</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDUARDO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>772.75</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004870019</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>760.19</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004214460</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>757.52</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005009992</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ALINE</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>751.02</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004448303</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>NASSIM</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>746</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005324840</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>PEDRO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>734.48</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005591536</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GUSTAVO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>725.86</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004298042</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUIZ</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>709.83</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004813134</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MONICA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>681.1</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004212476</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>659.01</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004975924</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>SERGIO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>642.85</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004436055</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARCO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>642.75</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004237325</x:t>
+        <x:v>188.49</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005068961</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>JORGE</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>185.33</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>005002390</x:t>
+        </x:is>
+      </x:c>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>LUCIANO</x:t>
+        </x:is>
+      </x:c>
+      <x:c>
+        <x:v>184.08</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="inlineStr">
+        <x:is>
+          <x:t>004539779</x:t>
         </x:is>
       </x:c>
       <x:c t="inlineStr">
@@ -516,1146 +1656,6 @@
         </x:is>
       </x:c>
       <x:c>
-        <x:v>613.44</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005044389</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLAUDIA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>592.87</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004363260</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LARISSA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>577.69</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005198093</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>575.32</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004584517</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CAIO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>561.93</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004231509</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>THEOMAR</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>559.82</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005685353</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CARLOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>550.73</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004222784</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RAFAEL</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>507.4</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004453157</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JOSE</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>494.82</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004713953</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ALESSANDRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>481.75</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004748761</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARCELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>470.54</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005324981</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>459.61</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>002687737</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JOSE</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>435.78</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004376853</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ALBERTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>429.15</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004567324</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FRANCISCO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>424.34</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004364200</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>BLOCO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>415.24</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004415557</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FILIPE</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>390.41</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004468717</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>HELOISA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>387.99</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004454491</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARCO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>386.63</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005293480</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>WAGNER</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>383</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004643746</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARIO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>381.27</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004754056</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>BRUNO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>371.54</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004813088</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JULIANA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>367.4</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004323271</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RAFAEL</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>360</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004001621</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANIELA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>358.98</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004879567</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>SANDRA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>357.13</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005332628</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>EDUARDO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>353.07</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004455356</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>MARCELO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>347.25</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004567880</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUANA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>341.56</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004381328</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JOAO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>338.08</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004752494</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>SERGIO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>337.35</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004479287</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>333.42</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004385806</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ANILSON</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>311.89</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004565108</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GUSTAVO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>308.78</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004690692</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>PHYLIA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>306.37</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004551472</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DIEGO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>302.65</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004935287</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ODILON</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>301.39</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005061124</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>BRUNO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>300.42</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005002457</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ROSANGELA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>291.07</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004382374</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>THEOMAR</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>290.45</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004405234</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JULIO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>288.63</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004420763</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CHRISTIAN</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>284.27</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004381415</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JOAO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>275.93</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004554411</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUIZ</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>273.56</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004484207</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FLAVIA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>270.23</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004462930</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>WALTER</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>269.74</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004950193</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GABRIEL</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>268.94</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004862677</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RENATO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>268.5</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005121919</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JORGE</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>265.03</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004508526</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CASSIO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>257.74</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005624274</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLAYTON</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>256.57</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004452597</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LARA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>250.28</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005654767</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DIEGO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>250</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004376145</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCYENE</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>248.88</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004482163</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CIRIA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>247.23</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004472538</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RODOLFO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>243.25</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004212409</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RAFAEL</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>238.79</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>002277249</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>DANILO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>234.94</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004482090</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CEZAR</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>233.12</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005262440</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>BERNARDO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>229.64</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>002828327</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RENAN</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>229.1</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004584982</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>BRUNO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>226.72</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004500087</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JANNE</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>221.68</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004805269</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CLISIA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>221.06</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004751154</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CATARINE</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>220.44</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005105970</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>VERA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>220.04</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004342617</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JURACI</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>216.82</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004752534</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>CARLOS</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>215.52</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004767746</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ISABELE</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>212.07</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005255637</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>PATRICIA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>206.15</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004515548</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>FLAVIA</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>198.87</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004259659</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>BENTO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>195.19</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004996634</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>HIROKO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>193.38</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004948033</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>GUILHERME</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>188.49</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005068961</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>JORGE</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>185.33</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>005002390</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>LUCIANO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>184.08</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004539779</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>RICARDO</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
         <x:v>180.06</x:v>
       </x:c>
     </x:row>
@@ -1717,21 +1717,6 @@
       </x:c>
       <x:c>
         <x:v>169.07</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>004575632</x:t>
-        </x:is>
-      </x:c>
-      <x:c t="inlineStr">
-        <x:is>
-          <x:t>ADELE</x:t>
-        </x:is>
-      </x:c>
-      <x:c>
-        <x:v>166.01</x:v>
       </x:c>
     </x:row>
     <x:row>
